--- a/DataGenerator/excel/object.xlsx
+++ b/DataGenerator/excel/object.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="140" windowWidth="20380" windowHeight="12060"/>
+    <workbookView xWindow="860" yWindow="3000" windowWidth="20380" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>asdf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,35 @@
   </si>
   <si>
     <t>hgfgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res/grossinis.png</t>
+  </si>
+  <si>
+    <t>res/elf_cat.png</t>
+  </si>
+  <si>
+    <t>res/building.png</t>
+  </si>
+  <si>
+    <t>res/building.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,18 +477,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="99.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +501,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -484,8 +515,11 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,57 +527,72 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>5645</v>
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/DataGenerator/excel/object.xlsx
+++ b/DataGenerator/excel/object.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="3000" windowWidth="20380" windowHeight="12060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,47 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1:玩家
+2:水晶
+3:非功能性建筑
+4:传送
+5:副本
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,13 +125,31 @@
     <t>res/grossinis.png</t>
   </si>
   <si>
-    <t>res/elf_cat.png</t>
-  </si>
-  <si>
-    <t>res/building.png</t>
-  </si>
-  <si>
-    <t>res/building.png</t>
+    <t>res/building/crystal.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res/building/transfer.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res/building/fuben.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +171,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -476,22 +542,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,13 +565,16 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -513,13 +582,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,71 +599,86 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -599,6 +686,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/DataGenerator/excel/object.xlsx
+++ b/DataGenerator/excel/object.xlsx
@@ -546,7 +546,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -659,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>

--- a/DataGenerator/excel/object.xlsx
+++ b/DataGenerator/excel/object.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="4080" yWindow="620" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,14 @@
   </si>
   <si>
     <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -680,6 +688,34 @@
       </c>
       <c r="E8" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DataGenerator/excel/object.xlsx
+++ b/DataGenerator/excel/object.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="620" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,8 @@
 3:非功能性建筑
 4:传送
 5:副本
+6:副本返回传送点
+7:明雷怪物
 </t>
         </r>
       </text>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,7 +159,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>guai</t>
+    <t>transgre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baoxiang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +198,22 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -243,15 +265,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -551,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -695,13 +737,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9">
         <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -709,12 +754,43 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
         <v>2</v>
       </c>
     </row>
